--- a/CKC Correction Factors.xlsx
+++ b/CKC Correction Factors.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Dropbox\2024\R code and supporting documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\CKC_extractOmegaGPSdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA4D8D0-6159-4886-9BEA-7E41E9FE1CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B95584-BB33-437E-BEFB-24C56665E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="854" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11715" tabRatio="854" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="C1 Detail chart" sheetId="1" r:id="rId1"/>
-    <sheet name="C2 Detail chart" sheetId="5" r:id="rId2"/>
-    <sheet name="K1 Detail chart" sheetId="2" r:id="rId3"/>
-    <sheet name="K2 Detail chart" sheetId="3" r:id="rId4"/>
-    <sheet name="K4 Detail chart" sheetId="4" r:id="rId5"/>
+    <sheet name="C1" sheetId="1" r:id="rId1"/>
+    <sheet name="C2" sheetId="5" r:id="rId2"/>
+    <sheet name="K1" sheetId="2" r:id="rId3"/>
+    <sheet name="K2" sheetId="3" r:id="rId4"/>
+    <sheet name="K4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2937,25 +2937,25 @@
       <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="32"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.81640625" customWidth="1"/>
-    <col min="40" max="40" width="14.26953125" customWidth="1"/>
-    <col min="41" max="41" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5.9</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5.8</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5.7</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="AP5" s="42"/>
       <c r="AQ5" s="43"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5.6</v>
       </c>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="AX6" s="9"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5.5</v>
       </c>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="BA7" s="20"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5.4</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5.3</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5.2</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5.0999999999999996</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4.9000000000000004</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4.8</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4.7</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>4.5999999999999996</v>
       </c>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AN16" s="5"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4.5</v>
       </c>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="AN17" s="23"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="AO18" s="24"/>
       <c r="AP18" s="25"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4.3</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="AO19" s="24"/>
       <c r="AP19" s="24"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4.2</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="AO20" s="24"/>
       <c r="AP20" s="24"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3.9</v>
       </c>
@@ -6406,7 +6406,7 @@
       <c r="AW23" s="29"/>
       <c r="AX23" s="6"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>3.8</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="AW24" s="29"/>
       <c r="AX24" s="6"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3.7</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="AO25" s="24"/>
       <c r="AP25" s="30"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>3.6</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>-14.9</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3.5</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>-14.5</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>3.4</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>3.3</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>3.2</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>3.1</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2.9</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>-11.6</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2.8</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2.7</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2.6</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2.5</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2.4</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2.1</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1.9</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1.8</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>-6.7</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1.7</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1.6</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>1.5</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1.4</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1.3</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1.2</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>0.9</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0.8</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>0.7</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0.6</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>0.5</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
         <v>0.4</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
         <v>0.3</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>-1.2000000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>0.2</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
         <v>0.1</v>
       </c>
@@ -11867,25 +11867,25 @@
       <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="32"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="39" max="39" width="11.81640625" customWidth="1"/>
-    <col min="40" max="40" width="14.26953125" customWidth="1"/>
-    <col min="41" max="41" width="10.26953125" customWidth="1"/>
-    <col min="42" max="42" width="7.26953125" customWidth="1"/>
-    <col min="44" max="44" width="13.26953125" customWidth="1"/>
-    <col min="45" max="45" width="10.81640625" customWidth="1"/>
-    <col min="46" max="46" width="8.54296875" customWidth="1"/>
-    <col min="47" max="47" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" customWidth="1"/>
+    <col min="42" max="42" width="7.28515625" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" customWidth="1"/>
+    <col min="45" max="45" width="10.85546875" customWidth="1"/>
+    <col min="46" max="46" width="8.5703125" customWidth="1"/>
+    <col min="47" max="47" width="9.5703125" customWidth="1"/>
     <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="49" width="10.81640625" customWidth="1"/>
-    <col min="50" max="50" width="13.453125" customWidth="1"/>
+    <col min="49" max="49" width="10.85546875" customWidth="1"/>
+    <col min="50" max="50" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5.9</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>-20.7</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5.8</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>-20.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5.7</v>
       </c>
@@ -12580,7 +12580,7 @@
       <c r="AP5" s="42"/>
       <c r="AQ5" s="43"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5.6</v>
       </c>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="AX6" s="9"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5.5</v>
       </c>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="BA7" s="20"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5.4</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5.3</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5.2</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5.0999999999999996</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4.9000000000000004</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4.8</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4.7</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>4.5999999999999996</v>
       </c>
@@ -14380,7 +14380,7 @@
       </c>
       <c r="AN16" s="5"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4.5</v>
       </c>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="AN17" s="23"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -14663,7 +14663,7 @@
       <c r="AO18" s="24"/>
       <c r="AP18" s="25"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4.3</v>
       </c>
@@ -14815,7 +14815,7 @@
       <c r="AO19" s="24"/>
       <c r="AP19" s="24"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4.2</v>
       </c>
@@ -14967,7 +14967,7 @@
       <c r="AO20" s="24"/>
       <c r="AP20" s="24"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3.9</v>
       </c>
@@ -15421,7 +15421,7 @@
       <c r="AW23" s="29"/>
       <c r="AX23" s="6"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>3.8</v>
       </c>
@@ -15579,7 +15579,7 @@
       <c r="AW24" s="29"/>
       <c r="AX24" s="6"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3.7</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="AO25" s="24"/>
       <c r="AP25" s="30"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>3.6</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>-11.9</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3.5</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>3.4</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>3.3</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>3.2</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>3.1</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2.9</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>-8.6999999999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2.8</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2.7</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>-8.1</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2.6</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2.5</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2.4</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>-6.6</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2.1</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1.9</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>-5.6</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1.8</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1.7</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1.6</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>1.5</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1.4</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1.3</v>
       </c>
@@ -19212,7 +19212,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1.2</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>0.9</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0.8</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>0.7</v>
       </c>
@@ -20087,7 +20087,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0.6</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>0.5</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
         <v>0.4</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
         <v>0.3</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>-0.89999999999999991</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>0.2</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
         <v>0.1</v>
       </c>
@@ -21001,28 +21001,28 @@
       <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="32"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.81640625" customWidth="1"/>
-    <col min="40" max="40" width="14.26953125" customWidth="1"/>
-    <col min="41" max="41" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="17" customWidth="1"/>
-    <col min="54" max="54" width="11.81640625" customWidth="1"/>
+    <col min="54" max="54" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:52" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -21133,7 +21133,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -21262,7 +21262,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5.9</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>-23.6</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5.8</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>-23.2</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5.7</v>
       </c>
@@ -21716,7 +21716,7 @@
       <c r="AP5" s="42"/>
       <c r="AQ5" s="43"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5.6</v>
       </c>
@@ -21899,7 +21899,7 @@
       </c>
       <c r="AX6" s="9"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5.5</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>-1.88</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5.4</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5.3</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5.2</v>
       </c>
@@ -22571,7 +22571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5.0999999999999996</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4.9000000000000004</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4.8</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4.7</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>4.5999999999999996</v>
       </c>
@@ -23514,7 +23514,7 @@
       </c>
       <c r="AN16" s="5"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4.5</v>
       </c>
@@ -23644,7 +23644,7 @@
       </c>
       <c r="AN17" s="23"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -23796,7 +23796,7 @@
       <c r="AO18" s="24"/>
       <c r="AP18" s="25"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4.3</v>
       </c>
@@ -23948,7 +23948,7 @@
       <c r="AO19" s="24"/>
       <c r="AP19" s="24"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4.2</v>
       </c>
@@ -24100,7 +24100,7 @@
       <c r="AO20" s="24"/>
       <c r="AP20" s="24"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -24255,7 +24255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3.9</v>
       </c>
@@ -24553,7 +24553,7 @@
       <c r="AW23" s="29"/>
       <c r="AX23" s="6"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>3.8</v>
       </c>
@@ -24711,7 +24711,7 @@
       <c r="AW24" s="29"/>
       <c r="AX24" s="6"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3.7</v>
       </c>
@@ -24863,7 +24863,7 @@
       <c r="AO25" s="24"/>
       <c r="AP25" s="30"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>3.6</v>
       </c>
@@ -25012,7 +25012,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3.5</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>3.4</v>
       </c>
@@ -25290,7 +25290,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>3.3</v>
       </c>
@@ -25445,7 +25445,7 @@
       <c r="AU29" s="23"/>
       <c r="AW29" s="33"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>3.2</v>
       </c>
@@ -25595,7 +25595,7 @@
       </c>
       <c r="AO30" s="26"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>3.1</v>
       </c>
@@ -25745,7 +25745,7 @@
       </c>
       <c r="AO31" s="34"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -25885,7 +25885,7 @@
       <c r="AX32" s="6"/>
       <c r="AY32" s="6"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2.9</v>
       </c>
@@ -26046,7 +26046,7 @@
       <c r="AX33" s="36"/>
       <c r="AY33" s="36"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2.8</v>
       </c>
@@ -26207,7 +26207,7 @@
       <c r="AX34" s="36"/>
       <c r="AY34" s="36"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2.7</v>
       </c>
@@ -26368,7 +26368,7 @@
       <c r="AX35" s="36"/>
       <c r="AY35" s="36"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2.6</v>
       </c>
@@ -26529,7 +26529,7 @@
       <c r="AX36" s="36"/>
       <c r="AY36" s="36"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2.5</v>
       </c>
@@ -26670,7 +26670,7 @@
       <c r="AX37" s="36"/>
       <c r="AY37" s="36"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2.4</v>
       </c>
@@ -26831,7 +26831,7 @@
       <c r="AX38" s="36"/>
       <c r="AY38" s="36"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -26992,7 +26992,7 @@
       <c r="AX39" s="36"/>
       <c r="AY39" s="36"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -27153,7 +27153,7 @@
       <c r="AX40" s="36"/>
       <c r="AY40" s="36"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2.1</v>
       </c>
@@ -27314,7 +27314,7 @@
       <c r="AX41" s="36"/>
       <c r="AY41" s="36"/>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -27455,7 +27455,7 @@
       <c r="AX42" s="36"/>
       <c r="AY42" s="36"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1.9</v>
       </c>
@@ -27616,7 +27616,7 @@
       <c r="AX43" s="36"/>
       <c r="AY43" s="36"/>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1.8</v>
       </c>
@@ -27777,7 +27777,7 @@
       <c r="AX44" s="36"/>
       <c r="AY44" s="36"/>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1.7</v>
       </c>
@@ -27938,7 +27938,7 @@
       <c r="AX45" s="37"/>
       <c r="AY45" s="37"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1.6</v>
       </c>
@@ -28099,7 +28099,7 @@
       <c r="AX46" s="36"/>
       <c r="AY46" s="36"/>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>1.5</v>
       </c>
@@ -28240,7 +28240,7 @@
       <c r="AX47" s="36"/>
       <c r="AY47" s="36"/>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1.4</v>
       </c>
@@ -28401,7 +28401,7 @@
       <c r="AX48" s="36"/>
       <c r="AY48" s="36"/>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1.3</v>
       </c>
@@ -28562,7 +28562,7 @@
       <c r="AX49" s="36"/>
       <c r="AY49" s="36"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1.2</v>
       </c>
@@ -28723,7 +28723,7 @@
       <c r="AX50" s="36"/>
       <c r="AY50" s="36"/>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -28884,7 +28884,7 @@
       <c r="AX51" s="36"/>
       <c r="AY51" s="36"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -29025,7 +29025,7 @@
       <c r="AX52" s="36"/>
       <c r="AY52" s="36"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>0.9</v>
       </c>
@@ -29186,7 +29186,7 @@
       <c r="AX53" s="36"/>
       <c r="AY53" s="36"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0.8</v>
       </c>
@@ -29347,7 +29347,7 @@
       <c r="AX54" s="36"/>
       <c r="AY54" s="36"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>0.7</v>
       </c>
@@ -29508,7 +29508,7 @@
       <c r="AX55" s="36"/>
       <c r="AY55" s="36"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0.6</v>
       </c>
@@ -29669,7 +29669,7 @@
       <c r="AX56" s="36"/>
       <c r="AY56" s="36"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>0.5</v>
       </c>
@@ -29810,7 +29810,7 @@
       <c r="AX57" s="36"/>
       <c r="AY57" s="36"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
         <v>0.4</v>
       </c>
@@ -29959,7 +29959,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
         <v>0.3</v>
       </c>
@@ -30108,7 +30108,7 @@
         <v>-0.89999999999999991</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>0.2</v>
       </c>
@@ -30257,7 +30257,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
         <v>0.1</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="31">
         <v>0</v>
       </c>
@@ -30558,26 +30558,26 @@
       <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="32"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="39" max="39" width="11.81640625" customWidth="1"/>
-    <col min="40" max="40" width="14.26953125" customWidth="1"/>
-    <col min="41" max="41" width="10.26953125" customWidth="1"/>
-    <col min="42" max="42" width="7.26953125" customWidth="1"/>
-    <col min="43" max="43" width="9.453125" customWidth="1"/>
-    <col min="44" max="44" width="13.26953125" customWidth="1"/>
-    <col min="45" max="45" width="10.81640625" customWidth="1"/>
-    <col min="46" max="46" width="8.54296875" customWidth="1"/>
-    <col min="47" max="47" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" customWidth="1"/>
+    <col min="42" max="42" width="7.28515625" customWidth="1"/>
+    <col min="43" max="43" width="9.42578125" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" customWidth="1"/>
+    <col min="45" max="45" width="10.85546875" customWidth="1"/>
+    <col min="46" max="46" width="8.5703125" customWidth="1"/>
+    <col min="47" max="47" width="9.5703125" customWidth="1"/>
     <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="49" width="10.81640625" customWidth="1"/>
-    <col min="50" max="50" width="13.453125" customWidth="1"/>
+    <col min="49" max="49" width="10.85546875" customWidth="1"/>
+    <col min="50" max="50" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -30688,7 +30688,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -30818,7 +30818,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5.9</v>
       </c>
@@ -30967,7 +30967,7 @@
         <v>-17.7</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5.8</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>-17.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5.7</v>
       </c>
@@ -31272,7 +31272,7 @@
       <c r="AP5" s="42"/>
       <c r="AQ5" s="43"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5.6</v>
       </c>
@@ -31455,7 +31455,7 @@
       </c>
       <c r="AX6" s="9"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5.5</v>
       </c>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="BA7" s="20"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5.4</v>
       </c>
@@ -31802,7 +31802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5.3</v>
       </c>
@@ -31967,7 +31967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5.2</v>
       </c>
@@ -32129,7 +32129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5.0999999999999996</v>
       </c>
@@ -32295,7 +32295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -32438,7 +32438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4.9000000000000004</v>
       </c>
@@ -32600,7 +32600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4.8</v>
       </c>
@@ -32763,7 +32763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4.7</v>
       </c>
@@ -32926,7 +32926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>4.5999999999999996</v>
       </c>
@@ -33076,7 +33076,7 @@
       </c>
       <c r="AN16" s="5"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4.5</v>
       </c>
@@ -33207,7 +33207,7 @@
       </c>
       <c r="AN17" s="23"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -33359,7 +33359,7 @@
       <c r="AO18" s="24"/>
       <c r="AP18" s="25"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4.3</v>
       </c>
@@ -33511,7 +33511,7 @@
       <c r="AO19" s="24"/>
       <c r="AP19" s="24"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4.2</v>
       </c>
@@ -33663,7 +33663,7 @@
       <c r="AO20" s="24"/>
       <c r="AP20" s="24"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -33818,7 +33818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -33959,7 +33959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3.9</v>
       </c>
@@ -34117,7 +34117,7 @@
       <c r="AW23" s="29"/>
       <c r="AX23" s="6"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>3.8</v>
       </c>
@@ -34275,7 +34275,7 @@
       <c r="AW24" s="29"/>
       <c r="AX24" s="6"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3.7</v>
       </c>
@@ -34427,7 +34427,7 @@
       <c r="AO25" s="24"/>
       <c r="AP25" s="30"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>3.6</v>
       </c>
@@ -34576,7 +34576,7 @@
         <v>-10.9</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3.5</v>
       </c>
@@ -34706,7 +34706,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>3.4</v>
       </c>
@@ -34855,7 +34855,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>3.3</v>
       </c>
@@ -35010,7 +35010,7 @@
       <c r="AU29" s="23"/>
       <c r="AW29" s="33"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>3.2</v>
       </c>
@@ -35160,7 +35160,7 @@
       </c>
       <c r="AO30" s="26"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>3.1</v>
       </c>
@@ -35310,7 +35310,7 @@
       </c>
       <c r="AO31" s="34"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -35451,7 +35451,7 @@
       <c r="AX32" s="6"/>
       <c r="AY32" s="6"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2.9</v>
       </c>
@@ -35612,7 +35612,7 @@
       <c r="AX33" s="36"/>
       <c r="AY33" s="36"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2.8</v>
       </c>
@@ -35773,7 +35773,7 @@
       <c r="AX34" s="36"/>
       <c r="AY34" s="36"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2.7</v>
       </c>
@@ -35934,7 +35934,7 @@
       <c r="AX35" s="36"/>
       <c r="AY35" s="36"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2.6</v>
       </c>
@@ -36095,7 +36095,7 @@
       <c r="AX36" s="36"/>
       <c r="AY36" s="36"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2.5</v>
       </c>
@@ -36237,7 +36237,7 @@
       <c r="AX37" s="36"/>
       <c r="AY37" s="36"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2.4</v>
       </c>
@@ -36398,7 +36398,7 @@
       <c r="AX38" s="36"/>
       <c r="AY38" s="36"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -36559,7 +36559,7 @@
       <c r="AX39" s="36"/>
       <c r="AY39" s="36"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -36720,7 +36720,7 @@
       <c r="AX40" s="36"/>
       <c r="AY40" s="36"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2.1</v>
       </c>
@@ -36881,7 +36881,7 @@
       <c r="AX41" s="36"/>
       <c r="AY41" s="36"/>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -37023,7 +37023,7 @@
       <c r="AX42" s="36"/>
       <c r="AY42" s="36"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1.9</v>
       </c>
@@ -37184,7 +37184,7 @@
       <c r="AX43" s="36"/>
       <c r="AY43" s="36"/>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1.8</v>
       </c>
@@ -37345,7 +37345,7 @@
       <c r="AX44" s="36"/>
       <c r="AY44" s="36"/>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1.7</v>
       </c>
@@ -37506,7 +37506,7 @@
       <c r="AX45" s="37"/>
       <c r="AY45" s="37"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1.6</v>
       </c>
@@ -37667,7 +37667,7 @@
       <c r="AX46" s="36"/>
       <c r="AY46" s="36"/>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>1.5</v>
       </c>
@@ -37809,7 +37809,7 @@
       <c r="AX47" s="36"/>
       <c r="AY47" s="36"/>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1.4</v>
       </c>
@@ -37970,7 +37970,7 @@
       <c r="AX48" s="36"/>
       <c r="AY48" s="36"/>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1.3</v>
       </c>
@@ -38131,7 +38131,7 @@
       <c r="AX49" s="36"/>
       <c r="AY49" s="36"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1.2</v>
       </c>
@@ -38292,7 +38292,7 @@
       <c r="AX50" s="36"/>
       <c r="AY50" s="36"/>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -38453,7 +38453,7 @@
       <c r="AX51" s="36"/>
       <c r="AY51" s="36"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -38595,7 +38595,7 @@
       <c r="AX52" s="36"/>
       <c r="AY52" s="36"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>0.9</v>
       </c>
@@ -38756,7 +38756,7 @@
       <c r="AX53" s="36"/>
       <c r="AY53" s="36"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0.8</v>
       </c>
@@ -38917,7 +38917,7 @@
       <c r="AX54" s="36"/>
       <c r="AY54" s="36"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>0.7</v>
       </c>
@@ -39078,7 +39078,7 @@
       <c r="AX55" s="36"/>
       <c r="AY55" s="36"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0.6</v>
       </c>
@@ -39239,7 +39239,7 @@
       <c r="AX56" s="36"/>
       <c r="AY56" s="36"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>0.5</v>
       </c>
@@ -39381,7 +39381,7 @@
       <c r="AX57" s="36"/>
       <c r="AY57" s="36"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
         <v>0.4</v>
       </c>
@@ -39530,7 +39530,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
         <v>0.3</v>
       </c>
@@ -39679,7 +39679,7 @@
         <v>-0.89999999999999991</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>0.2</v>
       </c>
@@ -39828,7 +39828,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
         <v>0.1</v>
       </c>
@@ -39977,7 +39977,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="31">
         <v>0</v>
       </c>
@@ -40126,29 +40126,29 @@
   <dimension ref="A1:BA62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28"/>
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="32"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="39" max="39" width="11.81640625" customWidth="1"/>
-    <col min="40" max="40" width="14.26953125" customWidth="1"/>
-    <col min="41" max="41" width="10.26953125" customWidth="1"/>
-    <col min="42" max="42" width="7.26953125" customWidth="1"/>
-    <col min="43" max="43" width="9.453125" customWidth="1"/>
-    <col min="44" max="44" width="13.26953125" customWidth="1"/>
-    <col min="45" max="45" width="10.81640625" customWidth="1"/>
-    <col min="46" max="46" width="8.54296875" customWidth="1"/>
-    <col min="47" max="47" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" customWidth="1"/>
+    <col min="42" max="42" width="7.28515625" customWidth="1"/>
+    <col min="43" max="43" width="9.42578125" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" customWidth="1"/>
+    <col min="45" max="45" width="10.85546875" customWidth="1"/>
+    <col min="46" max="46" width="8.5703125" customWidth="1"/>
+    <col min="47" max="47" width="9.5703125" customWidth="1"/>
     <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="49" width="10.81640625" customWidth="1"/>
-    <col min="50" max="50" width="13.453125" customWidth="1"/>
+    <col min="49" max="49" width="10.85546875" customWidth="1"/>
+    <col min="50" max="50" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -40259,7 +40259,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -40389,7 +40389,7 @@
         <v>-14.5</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5.9</v>
       </c>
@@ -40538,7 +40538,7 @@
         <v>-14.2</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5.8</v>
       </c>
@@ -40687,7 +40687,7 @@
         <v>-13.9</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5.7</v>
       </c>
@@ -40843,7 +40843,7 @@
       <c r="AP5" s="42"/>
       <c r="AQ5" s="43"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5.6</v>
       </c>
@@ -41026,7 +41026,7 @@
       </c>
       <c r="AX6" s="9"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5.5</v>
       </c>
@@ -41206,7 +41206,7 @@
       </c>
       <c r="BA7" s="20"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5.4</v>
       </c>
@@ -41373,7 +41373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5.3</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5.2</v>
       </c>
@@ -41700,7 +41700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5.0999999999999996</v>
       </c>
@@ -41866,7 +41866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -42009,7 +42009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4.9000000000000004</v>
       </c>
@@ -42171,7 +42171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4.8</v>
       </c>
@@ -42334,7 +42334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4.7</v>
       </c>
@@ -42497,7 +42497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>4.5999999999999996</v>
       </c>
@@ -42647,7 +42647,7 @@
       </c>
       <c r="AN16" s="5"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4.5</v>
       </c>
@@ -42778,7 +42778,7 @@
       </c>
       <c r="AN17" s="23"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -42930,7 +42930,7 @@
       <c r="AO18" s="24"/>
       <c r="AP18" s="25"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4.3</v>
       </c>
@@ -43082,7 +43082,7 @@
       <c r="AO19" s="24"/>
       <c r="AP19" s="24"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4.2</v>
       </c>
@@ -43234,7 +43234,7 @@
       <c r="AO20" s="24"/>
       <c r="AP20" s="24"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -43389,7 +43389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -43530,7 +43530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3.9</v>
       </c>
@@ -43688,7 +43688,7 @@
       <c r="AW23" s="29"/>
       <c r="AX23" s="6"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>3.8</v>
       </c>
@@ -43846,7 +43846,7 @@
       <c r="AW24" s="29"/>
       <c r="AX24" s="6"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3.7</v>
       </c>
@@ -43998,7 +43998,7 @@
       <c r="AO25" s="24"/>
       <c r="AP25" s="30"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>3.6</v>
       </c>
@@ -44147,7 +44147,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3.5</v>
       </c>
@@ -44277,7 +44277,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>3.4</v>
       </c>
@@ -44426,7 +44426,7 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>3.3</v>
       </c>
@@ -44581,7 +44581,7 @@
       <c r="AU29" s="23"/>
       <c r="AW29" s="33"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>3.2</v>
       </c>
@@ -44731,7 +44731,7 @@
       </c>
       <c r="AO30" s="26"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>3.1</v>
       </c>
@@ -44881,7 +44881,7 @@
       </c>
       <c r="AO31" s="34"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -45022,7 +45022,7 @@
       <c r="AX32" s="6"/>
       <c r="AY32" s="6"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2.9</v>
       </c>
@@ -45183,7 +45183,7 @@
       <c r="AX33" s="36"/>
       <c r="AY33" s="36"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2.8</v>
       </c>
@@ -45344,7 +45344,7 @@
       <c r="AX34" s="36"/>
       <c r="AY34" s="36"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2.7</v>
       </c>
@@ -45505,7 +45505,7 @@
       <c r="AX35" s="36"/>
       <c r="AY35" s="36"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2.6</v>
       </c>
@@ -45666,7 +45666,7 @@
       <c r="AX36" s="36"/>
       <c r="AY36" s="36"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2.5</v>
       </c>
@@ -45808,7 +45808,7 @@
       <c r="AX37" s="36"/>
       <c r="AY37" s="36"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2.4</v>
       </c>
@@ -45969,7 +45969,7 @@
       <c r="AX38" s="36"/>
       <c r="AY38" s="36"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -46130,7 +46130,7 @@
       <c r="AX39" s="36"/>
       <c r="AY39" s="36"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -46291,7 +46291,7 @@
       <c r="AX40" s="36"/>
       <c r="AY40" s="36"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2.1</v>
       </c>
@@ -46452,7 +46452,7 @@
       <c r="AX41" s="36"/>
       <c r="AY41" s="36"/>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -46594,7 +46594,7 @@
       <c r="AX42" s="36"/>
       <c r="AY42" s="36"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1.9</v>
       </c>
@@ -46755,7 +46755,7 @@
       <c r="AX43" s="36"/>
       <c r="AY43" s="36"/>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1.8</v>
       </c>
@@ -46916,7 +46916,7 @@
       <c r="AX44" s="36"/>
       <c r="AY44" s="36"/>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1.7</v>
       </c>
@@ -47077,7 +47077,7 @@
       <c r="AX45" s="37"/>
       <c r="AY45" s="37"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1.6</v>
       </c>
@@ -47238,7 +47238,7 @@
       <c r="AX46" s="36"/>
       <c r="AY46" s="36"/>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>1.5</v>
       </c>
@@ -47380,7 +47380,7 @@
       <c r="AX47" s="36"/>
       <c r="AY47" s="36"/>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1.4</v>
       </c>
@@ -47541,7 +47541,7 @@
       <c r="AX48" s="36"/>
       <c r="AY48" s="36"/>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1.3</v>
       </c>
@@ -47702,7 +47702,7 @@
       <c r="AX49" s="36"/>
       <c r="AY49" s="36"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1.2</v>
       </c>
@@ -47863,7 +47863,7 @@
       <c r="AX50" s="36"/>
       <c r="AY50" s="36"/>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -48024,7 +48024,7 @@
       <c r="AX51" s="36"/>
       <c r="AY51" s="36"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -48166,7 +48166,7 @@
       <c r="AX52" s="36"/>
       <c r="AY52" s="36"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>0.9</v>
       </c>
@@ -48327,7 +48327,7 @@
       <c r="AX53" s="36"/>
       <c r="AY53" s="36"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0.8</v>
       </c>
@@ -48488,7 +48488,7 @@
       <c r="AX54" s="36"/>
       <c r="AY54" s="36"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>0.7</v>
       </c>
@@ -48649,7 +48649,7 @@
       <c r="AX55" s="36"/>
       <c r="AY55" s="36"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0.6</v>
       </c>
@@ -48810,7 +48810,7 @@
       <c r="AX56" s="36"/>
       <c r="AY56" s="36"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>0.5</v>
       </c>
@@ -48952,7 +48952,7 @@
       <c r="AX57" s="36"/>
       <c r="AY57" s="36"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
         <v>0.4</v>
       </c>
@@ -49101,7 +49101,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
         <v>0.3</v>
       </c>
@@ -49250,7 +49250,7 @@
         <v>-0.60000000000000009</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>0.2</v>
       </c>
@@ -49399,7 +49399,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
         <v>0.1</v>
       </c>
@@ -49548,7 +49548,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="31">
         <v>0</v>
       </c>
@@ -49690,6 +49690,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="35ea8244-09bc-4ffc-ac4b-a1ca3452d181" xsi:nil="true"/>
@@ -49700,15 +49709,6 @@
     <Dateoftrainingsession xmlns="12147f76-dc77-4ea1-80aa-6902ae4dea79"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49975,20 +49975,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC271B2A-8E44-4D16-B66E-A5BC0CFF8050}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E03A3900-34DA-45FF-B413-C536E1AB81C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="35ea8244-09bc-4ffc-ac4b-a1ca3452d181"/>
     <ds:schemaRef ds:uri="12147f76-dc77-4ea1-80aa-6902ae4dea79"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC271B2A-8E44-4D16-B66E-A5BC0CFF8050}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
